--- a/dumps/Stocks/Nippon Silver.xlsx
+++ b/dumps/Stocks/Nippon Silver.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Trading History'!$B$4:$AD$70</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_448664F1_CEF3_4130_B9D7_EADC666DB883_.wvu.FilterData">'Trading History'!$B$4:$AO$92</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A78DDDD8_15DF_421A_AB0F_1933774477E1_.wvu.FilterData">'Trading History'!$B$4:$AO$92</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{448664F1-CEF3-4130-B9D7-EADC666DB883}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A78DDDD8-15DF-421A-AB0F-1933774477E1}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="J5" s="35">
         <f>Index!$C$2</f>
-        <v>224.6</v>
+        <v>247.82</v>
       </c>
       <c r="K5" s="36" t="str">
         <f t="shared" ref="K5:K11" si="1">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
@@ -1236,55 +1236,55 @@
       </c>
       <c r="J6" s="35">
         <f>Index!$C$2</f>
-        <v>224.6</v>
+        <v>247.82</v>
       </c>
       <c r="K6" s="36">
         <f t="shared" si="1"/>
-        <v>0.9470340745</v>
+        <v>1.146165934</v>
       </c>
       <c r="L6" s="37">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>6533.0388</v>
+        <v>7906.734</v>
       </c>
       <c r="M6" s="37">
         <f t="shared" si="2"/>
-        <v>13383.2388</v>
+        <v>14756.934</v>
       </c>
       <c r="N6" s="38">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>0.9470340745</v>
-      </c>
-      <c r="P6" s="37">
+        <v/>
+      </c>
+      <c r="P6" s="37" t="str">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>6533.0388</v>
-      </c>
-      <c r="Q6" s="37">
+        <v/>
+      </c>
+      <c r="Q6" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>13383.2388</v>
-      </c>
-      <c r="R6" s="37">
+        <v/>
+      </c>
+      <c r="R6" s="37" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S6" s="39">
+        <f t="shared" si="7"/>
+        <v>1.146165934</v>
+      </c>
+      <c r="T6" s="40">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <v>7906.734</v>
+      </c>
+      <c r="U6" s="40">
+        <f t="shared" si="8"/>
+        <v>14756.934</v>
+      </c>
+      <c r="V6" s="40">
+        <f t="shared" si="9"/>
         <v>60</v>
-      </c>
-      <c r="S6" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T6" s="40" t="str">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U6" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="V6" s="40" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
       <c r="W6" s="40"/>
       <c r="X6" s="40"/>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="J7" s="35">
         <f>Index!$C$2</f>
-        <v>224.6</v>
+        <v>247.82</v>
       </c>
       <c r="K7" s="36" t="str">
         <f t="shared" si="1"/>
@@ -1426,19 +1426,19 @@
       </c>
       <c r="J8" s="35">
         <f>Index!$C$2</f>
-        <v>224.6</v>
+        <v>247.82</v>
       </c>
       <c r="K8" s="36">
         <f t="shared" si="1"/>
-        <v>0.8846707232</v>
+        <v>1.077354845</v>
       </c>
       <c r="L8" s="37">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v>2102.3492</v>
+        <v>2560.2476</v>
       </c>
       <c r="M8" s="37">
         <f t="shared" si="2"/>
-        <v>4462.1492</v>
+        <v>4920.0476</v>
       </c>
       <c r="N8" s="38">
         <f t="shared" si="3"/>
@@ -1462,15 +1462,15 @@
       </c>
       <c r="S8" s="39">
         <f t="shared" si="7"/>
-        <v>0.8846707232</v>
+        <v>1.077354845</v>
       </c>
       <c r="T8" s="40">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v>2102.3492</v>
+        <v>2560.2476</v>
       </c>
       <c r="U8" s="40">
         <f t="shared" si="8"/>
-        <v>4462.1492</v>
+        <v>4920.0476</v>
       </c>
       <c r="V8" s="40">
         <f t="shared" si="9"/>
@@ -1523,19 +1523,19 @@
       </c>
       <c r="J9" s="35">
         <f>Index!$C$2</f>
-        <v>224.6</v>
+        <v>247.82</v>
       </c>
       <c r="K9" s="36">
         <f t="shared" si="1"/>
-        <v>0.7699693547</v>
+        <v>0.9507996209</v>
       </c>
       <c r="L9" s="37">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v>974.8582</v>
+        <v>1203.8074</v>
       </c>
       <c r="M9" s="37">
         <f t="shared" si="2"/>
-        <v>2232.1582</v>
+        <v>2461.1074</v>
       </c>
       <c r="N9" s="38">
         <f t="shared" si="3"/>
@@ -1559,15 +1559,15 @@
       </c>
       <c r="S9" s="39">
         <f t="shared" si="7"/>
-        <v>0.7699693547</v>
+        <v>0.9507996209</v>
       </c>
       <c r="T9" s="40">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v>974.8582</v>
+        <v>1203.8074</v>
       </c>
       <c r="U9" s="40">
         <f t="shared" si="8"/>
-        <v>2232.1582</v>
+        <v>2461.1074</v>
       </c>
       <c r="V9" s="40">
         <f t="shared" si="9"/>
@@ -1620,19 +1620,19 @@
       </c>
       <c r="J10" s="35">
         <f>Index!$C$2</f>
-        <v>224.6</v>
+        <v>247.82</v>
       </c>
       <c r="K10" s="36">
         <f t="shared" si="1"/>
-        <v>1.062766468</v>
+        <v>1.273865162</v>
       </c>
       <c r="L10" s="37">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v>1152.634</v>
+        <v>1381.5832</v>
       </c>
       <c r="M10" s="37">
         <f t="shared" si="2"/>
-        <v>2229.634</v>
+        <v>2458.5832</v>
       </c>
       <c r="N10" s="38">
         <f t="shared" si="3"/>
@@ -1656,15 +1656,15 @@
       </c>
       <c r="S10" s="39">
         <f t="shared" si="7"/>
-        <v>1.062766468</v>
+        <v>1.273865162</v>
       </c>
       <c r="T10" s="40">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v>1152.634</v>
+        <v>1381.5832</v>
       </c>
       <c r="U10" s="40">
         <f t="shared" si="8"/>
-        <v>2229.634</v>
+        <v>2458.5832</v>
       </c>
       <c r="V10" s="40">
         <f t="shared" si="9"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="J11" s="35">
         <f>Index!$C$2</f>
-        <v>224.6</v>
+        <v>247.82</v>
       </c>
       <c r="K11" s="36" t="str">
         <f t="shared" si="1"/>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="J12" s="35">
         <f>Index!$C$2</f>
-        <v>224.6</v>
+        <v>247.82</v>
       </c>
       <c r="K12" s="49"/>
       <c r="L12" s="49" t="str">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="J13" s="35">
         <f>Index!$C$2</f>
-        <v>224.6</v>
+        <v>247.82</v>
       </c>
       <c r="K13" s="49"/>
       <c r="L13" s="49" t="str">
@@ -33979,7 +33979,7 @@
   </sheetData>
   <autoFilter ref="$B$4:$AD$70"/>
   <customSheetViews>
-    <customSheetView guid="{448664F1-CEF3-4130-B9D7-EADC666DB883}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A78DDDD8-15DF-421A-AB0F-1933774477E1}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$4:$AO$92"/>
     </customSheetView>
   </customSheetViews>
@@ -34081,8 +34081,8 @@
         <v>14</v>
       </c>
       <c r="C2" s="61">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),224.6)</f>
-        <v>224.6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),247.82)</f>
+        <v>247.82</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="59" t="s">
@@ -34271,7 +34271,7 @@
       </c>
       <c r="F8" s="69">
         <f>IFERROR(SUM('Trading History'!$R$4:$R1007), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="71" t="s">
@@ -34279,7 +34279,7 @@
       </c>
       <c r="I8" s="69">
         <f>SUM('Trading History'!$V$4:$V1007)</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J8" s="65"/>
       <c r="K8" s="72" t="s">
@@ -34310,7 +34310,7 @@
       </c>
       <c r="C9" s="62">
         <f>IFERROR(Index!C10/(Index!C8*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="75" t="s">
@@ -34318,7 +34318,7 @@
       </c>
       <c r="F9" s="62">
         <f>IFERROR(Index!F10/(Index!F8*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="76" t="s">
@@ -34326,7 +34326,7 @@
       </c>
       <c r="I9" s="62">
         <f>IFERROR(Index!I10/(Index!I8*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J9" s="65"/>
       <c r="K9" s="77" t="s">
@@ -34334,7 +34334,7 @@
       </c>
       <c r="L9" s="62">
         <f>IFERROR(Index!L10/(Index!L8*Index!$C$2), 0)</f>
-        <v>-0.2141052983</v>
+        <v>-0.194044266</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -34357,7 +34357,7 @@
       </c>
       <c r="C10" s="78">
         <f>SUM('Trading History'!$L$4:$L1007)</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D10" s="65"/>
       <c r="E10" s="75" t="s">
@@ -34365,7 +34365,7 @@
       </c>
       <c r="F10" s="78">
         <f>SUM('Trading History'!$P$4:$P1007)</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G10" s="65"/>
       <c r="H10" s="76" t="s">
@@ -34373,7 +34373,7 @@
       </c>
       <c r="I10" s="78">
         <f>SUM('Trading History'!$T$4:$T1007)</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J10" s="65"/>
       <c r="K10" s="77" t="s">
@@ -34412,7 +34412,7 @@
       </c>
       <c r="F11" s="78">
         <f>Index!F12-Index!F10</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="76" t="s">
@@ -34420,7 +34420,7 @@
       </c>
       <c r="I11" s="78">
         <f>Index!I12-Index!I10</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J11" s="65"/>
       <c r="K11" s="77" t="s">
@@ -34451,7 +34451,7 @@
       </c>
       <c r="C12" s="78">
         <f>SUM('Trading History'!$M$4:$M1007)</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D12" s="65"/>
       <c r="E12" s="75" t="s">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="F12" s="78">
         <f>SUM('Trading History'!$Q$4:$Q1007)</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G12" s="65"/>
       <c r="H12" s="76" t="s">
@@ -34467,7 +34467,7 @@
       </c>
       <c r="I12" s="78">
         <f>SUM('Trading History'!$U$4:$U1007)</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J12" s="65"/>
       <c r="K12" s="77" t="s">
@@ -34567,7 +34567,7 @@
       </c>
       <c r="F15" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A15)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G15" s="65"/>
       <c r="H15" s="71" t="s">
@@ -34575,7 +34575,7 @@
       </c>
       <c r="I15" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A15))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J15" s="65"/>
       <c r="K15" s="72" t="s">
@@ -34606,7 +34606,7 @@
       </c>
       <c r="C16" s="62">
         <f>IFERROR(Index!C17/(Index!C15*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="75" t="s">
@@ -34614,7 +34614,7 @@
       </c>
       <c r="F16" s="62">
         <f>IFERROR(Index!F17/(Index!F15*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="76" t="s">
@@ -34622,7 +34622,7 @@
       </c>
       <c r="I16" s="62">
         <f>IFERROR(Index!I17/(Index!I15*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J16" s="65"/>
       <c r="K16" s="77" t="s">
@@ -34653,7 +34653,7 @@
       </c>
       <c r="C17" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A15))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="75" t="s">
@@ -34661,7 +34661,7 @@
       </c>
       <c r="F17" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A15))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="76" t="s">
@@ -34669,7 +34669,7 @@
       </c>
       <c r="I17" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A15))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J17" s="65"/>
       <c r="K17" s="77" t="s">
@@ -34708,7 +34708,7 @@
       </c>
       <c r="F18" s="78">
         <f>Index!F19-Index!F17</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="65"/>
       <c r="H18" s="76" t="s">
@@ -34716,7 +34716,7 @@
       </c>
       <c r="I18" s="78">
         <f>Index!I19-Index!I17</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="77" t="s">
@@ -34747,7 +34747,7 @@
       </c>
       <c r="C19" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A15))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="75" t="s">
@@ -34755,7 +34755,7 @@
       </c>
       <c r="F19" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A15))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="76" t="s">
@@ -34763,7 +34763,7 @@
       </c>
       <c r="I19" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A15))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J19" s="65"/>
       <c r="K19" s="77" t="s">
@@ -34832,7 +34832,7 @@
       </c>
       <c r="F22" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A22)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="71" t="s">
@@ -34840,7 +34840,7 @@
       </c>
       <c r="I22" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A22))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J22" s="65"/>
       <c r="K22" s="72" t="s">
@@ -34871,7 +34871,7 @@
       </c>
       <c r="C23" s="62">
         <f>IFERROR(Index!C24/(Index!C22*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D23" s="65"/>
       <c r="E23" s="75" t="s">
@@ -34879,7 +34879,7 @@
       </c>
       <c r="F23" s="62">
         <f>IFERROR(Index!F24/(Index!F22*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G23" s="65"/>
       <c r="H23" s="76" t="s">
@@ -34887,7 +34887,7 @@
       </c>
       <c r="I23" s="62">
         <f>IFERROR(Index!I24/(Index!I22*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J23" s="65"/>
       <c r="K23" s="77" t="s">
@@ -34918,7 +34918,7 @@
       </c>
       <c r="C24" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A22))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D24" s="65"/>
       <c r="E24" s="75" t="s">
@@ -34926,7 +34926,7 @@
       </c>
       <c r="F24" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A22))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G24" s="65"/>
       <c r="H24" s="76" t="s">
@@ -34934,7 +34934,7 @@
       </c>
       <c r="I24" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A22))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J24" s="65"/>
       <c r="K24" s="77" t="s">
@@ -34973,7 +34973,7 @@
       </c>
       <c r="F25" s="78">
         <f>Index!F26-Index!F24</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="65"/>
       <c r="H25" s="76" t="s">
@@ -34981,7 +34981,7 @@
       </c>
       <c r="I25" s="78">
         <f>Index!I26-Index!I24</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J25" s="65"/>
       <c r="K25" s="77" t="s">
@@ -35012,7 +35012,7 @@
       </c>
       <c r="C26" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A22))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D26" s="65"/>
       <c r="E26" s="75" t="s">
@@ -35020,7 +35020,7 @@
       </c>
       <c r="F26" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A22))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G26" s="65"/>
       <c r="H26" s="76" t="s">
@@ -35028,7 +35028,7 @@
       </c>
       <c r="I26" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A22))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J26" s="65"/>
       <c r="K26" s="77" t="s">
@@ -35123,7 +35123,7 @@
       </c>
       <c r="F29" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A29)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29" s="65"/>
       <c r="H29" s="71" t="s">
@@ -35131,7 +35131,7 @@
       </c>
       <c r="I29" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A29))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J29" s="65"/>
       <c r="K29" s="72" t="s">
@@ -35162,7 +35162,7 @@
       </c>
       <c r="C30" s="62">
         <f>IFERROR(Index!C31/(Index!C29*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D30" s="65"/>
       <c r="E30" s="75" t="s">
@@ -35170,7 +35170,7 @@
       </c>
       <c r="F30" s="62">
         <f>IFERROR(Index!F31/(Index!F29*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G30" s="65"/>
       <c r="H30" s="76" t="s">
@@ -35178,7 +35178,7 @@
       </c>
       <c r="I30" s="62">
         <f>IFERROR(Index!I31/(Index!I29*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J30" s="65"/>
       <c r="K30" s="77" t="s">
@@ -35209,7 +35209,7 @@
       </c>
       <c r="C31" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A29))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D31" s="65"/>
       <c r="E31" s="75" t="s">
@@ -35217,7 +35217,7 @@
       </c>
       <c r="F31" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A29))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G31" s="65"/>
       <c r="H31" s="76" t="s">
@@ -35225,7 +35225,7 @@
       </c>
       <c r="I31" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A29))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J31" s="65"/>
       <c r="K31" s="77" t="s">
@@ -35264,7 +35264,7 @@
       </c>
       <c r="F32" s="78">
         <f>Index!F33-Index!F31</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="65"/>
       <c r="H32" s="76" t="s">
@@ -35272,7 +35272,7 @@
       </c>
       <c r="I32" s="78">
         <f>Index!I33-Index!I31</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J32" s="65"/>
       <c r="K32" s="77" t="s">
@@ -35303,7 +35303,7 @@
       </c>
       <c r="C33" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A29))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" s="75" t="s">
@@ -35311,7 +35311,7 @@
       </c>
       <c r="F33" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A29))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G33" s="65"/>
       <c r="H33" s="76" t="s">
@@ -35319,7 +35319,7 @@
       </c>
       <c r="I33" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A29))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J33" s="65"/>
       <c r="K33" s="77" t="s">
@@ -35414,7 +35414,7 @@
       </c>
       <c r="F36" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A36)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G36" s="65"/>
       <c r="H36" s="71" t="s">
@@ -35422,7 +35422,7 @@
       </c>
       <c r="I36" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A36))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J36" s="65"/>
       <c r="K36" s="72" t="s">
@@ -35453,7 +35453,7 @@
       </c>
       <c r="C37" s="62">
         <f>IFERROR(Index!C38/(Index!C36*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D37" s="65"/>
       <c r="E37" s="75" t="s">
@@ -35461,7 +35461,7 @@
       </c>
       <c r="F37" s="62">
         <f>IFERROR(Index!F38/(Index!F36*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G37" s="65"/>
       <c r="H37" s="76" t="s">
@@ -35469,7 +35469,7 @@
       </c>
       <c r="I37" s="62">
         <f>IFERROR(Index!I38/(Index!I36*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J37" s="65"/>
       <c r="K37" s="77" t="s">
@@ -35500,7 +35500,7 @@
       </c>
       <c r="C38" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A36))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D38" s="65"/>
       <c r="E38" s="75" t="s">
@@ -35508,7 +35508,7 @@
       </c>
       <c r="F38" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A36))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G38" s="65"/>
       <c r="H38" s="76" t="s">
@@ -35516,7 +35516,7 @@
       </c>
       <c r="I38" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A36))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J38" s="65"/>
       <c r="K38" s="77" t="s">
@@ -35555,7 +35555,7 @@
       </c>
       <c r="F39" s="78">
         <f>Index!F40-Index!F38</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G39" s="65"/>
       <c r="H39" s="76" t="s">
@@ -35563,7 +35563,7 @@
       </c>
       <c r="I39" s="78">
         <f>Index!I40-Index!I38</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J39" s="65"/>
       <c r="K39" s="77" t="s">
@@ -35594,7 +35594,7 @@
       </c>
       <c r="C40" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A36))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D40" s="65"/>
       <c r="E40" s="75" t="s">
@@ -35602,7 +35602,7 @@
       </c>
       <c r="F40" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A36))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G40" s="65"/>
       <c r="H40" s="76" t="s">
@@ -35610,7 +35610,7 @@
       </c>
       <c r="I40" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A36))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J40" s="65"/>
       <c r="K40" s="77" t="s">
@@ -35705,7 +35705,7 @@
       </c>
       <c r="F43" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A43)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G43" s="65"/>
       <c r="H43" s="71" t="s">
@@ -35713,7 +35713,7 @@
       </c>
       <c r="I43" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A43))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J43" s="65"/>
       <c r="K43" s="72" t="s">
@@ -35744,7 +35744,7 @@
       </c>
       <c r="C44" s="62">
         <f>IFERROR(Index!C45/(Index!C43*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D44" s="65"/>
       <c r="E44" s="75" t="s">
@@ -35752,7 +35752,7 @@
       </c>
       <c r="F44" s="62">
         <f>IFERROR(Index!F45/(Index!F43*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G44" s="65"/>
       <c r="H44" s="76" t="s">
@@ -35760,7 +35760,7 @@
       </c>
       <c r="I44" s="62">
         <f>IFERROR(Index!I45/(Index!I43*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J44" s="65"/>
       <c r="K44" s="77" t="s">
@@ -35791,7 +35791,7 @@
       </c>
       <c r="C45" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A43))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D45" s="65"/>
       <c r="E45" s="75" t="s">
@@ -35799,7 +35799,7 @@
       </c>
       <c r="F45" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A43))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G45" s="65"/>
       <c r="H45" s="76" t="s">
@@ -35807,7 +35807,7 @@
       </c>
       <c r="I45" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A43))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J45" s="65"/>
       <c r="K45" s="77" t="s">
@@ -35846,7 +35846,7 @@
       </c>
       <c r="F46" s="78">
         <f>Index!F47-Index!F45</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="65"/>
       <c r="H46" s="76" t="s">
@@ -35854,7 +35854,7 @@
       </c>
       <c r="I46" s="78">
         <f>Index!I47-Index!I45</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J46" s="65"/>
       <c r="K46" s="77" t="s">
@@ -35885,7 +35885,7 @@
       </c>
       <c r="C47" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A43))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D47" s="65"/>
       <c r="E47" s="75" t="s">
@@ -35893,7 +35893,7 @@
       </c>
       <c r="F47" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A43))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G47" s="65"/>
       <c r="H47" s="76" t="s">
@@ -35901,7 +35901,7 @@
       </c>
       <c r="I47" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A43))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J47" s="65"/>
       <c r="K47" s="77" t="s">
@@ -35996,7 +35996,7 @@
       </c>
       <c r="F50" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A50)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G50" s="65"/>
       <c r="H50" s="71" t="s">
@@ -36004,7 +36004,7 @@
       </c>
       <c r="I50" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A50))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J50" s="65"/>
       <c r="K50" s="72" t="s">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="C51" s="62">
         <f>IFERROR(Index!C52/(Index!C50*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D51" s="65"/>
       <c r="E51" s="75" t="s">
@@ -36043,7 +36043,7 @@
       </c>
       <c r="F51" s="62">
         <f>IFERROR(Index!F52/(Index!F50*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G51" s="65"/>
       <c r="H51" s="76" t="s">
@@ -36051,7 +36051,7 @@
       </c>
       <c r="I51" s="62">
         <f>IFERROR(Index!I52/(Index!I50*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J51" s="65"/>
       <c r="K51" s="77" t="s">
@@ -36082,7 +36082,7 @@
       </c>
       <c r="C52" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A50))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D52" s="65"/>
       <c r="E52" s="75" t="s">
@@ -36090,7 +36090,7 @@
       </c>
       <c r="F52" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A50))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G52" s="65"/>
       <c r="H52" s="76" t="s">
@@ -36098,7 +36098,7 @@
       </c>
       <c r="I52" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A50))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J52" s="65"/>
       <c r="K52" s="77" t="s">
@@ -36137,7 +36137,7 @@
       </c>
       <c r="F53" s="78">
         <f>Index!F54-Index!F52</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G53" s="65"/>
       <c r="H53" s="76" t="s">
@@ -36145,7 +36145,7 @@
       </c>
       <c r="I53" s="78">
         <f>Index!I54-Index!I52</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J53" s="65"/>
       <c r="K53" s="77" t="s">
@@ -36176,7 +36176,7 @@
       </c>
       <c r="C54" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A50))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D54" s="65"/>
       <c r="E54" s="75" t="s">
@@ -36184,7 +36184,7 @@
       </c>
       <c r="F54" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A50))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G54" s="65"/>
       <c r="H54" s="76" t="s">
@@ -36192,7 +36192,7 @@
       </c>
       <c r="I54" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A50))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J54" s="65"/>
       <c r="K54" s="77" t="s">
@@ -36287,7 +36287,7 @@
       </c>
       <c r="F57" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A57)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G57" s="65"/>
       <c r="H57" s="71" t="s">
@@ -36295,7 +36295,7 @@
       </c>
       <c r="I57" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A57))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J57" s="65"/>
       <c r="K57" s="72" t="s">
@@ -36326,7 +36326,7 @@
       </c>
       <c r="C58" s="62">
         <f>IFERROR(Index!C59/(Index!C57*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D58" s="65"/>
       <c r="E58" s="75" t="s">
@@ -36334,7 +36334,7 @@
       </c>
       <c r="F58" s="62">
         <f>IFERROR(Index!F59/(Index!F57*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G58" s="65"/>
       <c r="H58" s="76" t="s">
@@ -36342,7 +36342,7 @@
       </c>
       <c r="I58" s="62">
         <f>IFERROR(Index!I59/(Index!I57*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J58" s="65"/>
       <c r="K58" s="77" t="s">
@@ -36350,7 +36350,7 @@
       </c>
       <c r="L58" s="62">
         <f>IFERROR(Index!L59/(Index!L57*Index!$C$2), 0)</f>
-        <v>0.03095985823</v>
+        <v>0.02805901121</v>
       </c>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -36373,7 +36373,7 @@
       </c>
       <c r="C59" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A57))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D59" s="65"/>
       <c r="E59" s="75" t="s">
@@ -36381,7 +36381,7 @@
       </c>
       <c r="F59" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A57))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G59" s="65"/>
       <c r="H59" s="76" t="s">
@@ -36389,7 +36389,7 @@
       </c>
       <c r="I59" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A57))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J59" s="65"/>
       <c r="K59" s="77" t="s">
@@ -36428,7 +36428,7 @@
       </c>
       <c r="F60" s="78">
         <f>Index!F61-Index!F59</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G60" s="65"/>
       <c r="H60" s="76" t="s">
@@ -36436,7 +36436,7 @@
       </c>
       <c r="I60" s="78">
         <f>Index!I61-Index!I59</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J60" s="65"/>
       <c r="K60" s="77" t="s">
@@ -36467,7 +36467,7 @@
       </c>
       <c r="C61" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A57))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D61" s="65"/>
       <c r="E61" s="75" t="s">
@@ -36475,7 +36475,7 @@
       </c>
       <c r="F61" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A57))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G61" s="65"/>
       <c r="H61" s="76" t="s">
@@ -36483,7 +36483,7 @@
       </c>
       <c r="I61" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A57))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J61" s="65"/>
       <c r="K61" s="77" t="s">
@@ -36578,7 +36578,7 @@
       </c>
       <c r="F64" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A64)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G64" s="65"/>
       <c r="H64" s="71" t="s">
@@ -36586,7 +36586,7 @@
       </c>
       <c r="I64" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A64))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J64" s="65"/>
       <c r="K64" s="72" t="s">
@@ -36617,7 +36617,7 @@
       </c>
       <c r="C65" s="62">
         <f>IFERROR(Index!C66/(Index!C64*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D65" s="65"/>
       <c r="E65" s="75" t="s">
@@ -36625,7 +36625,7 @@
       </c>
       <c r="F65" s="62">
         <f>IFERROR(Index!F66/(Index!F64*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G65" s="65"/>
       <c r="H65" s="76" t="s">
@@ -36633,7 +36633,7 @@
       </c>
       <c r="I65" s="62">
         <f>IFERROR(Index!I66/(Index!I64*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J65" s="65"/>
       <c r="K65" s="77" t="s">
@@ -36641,7 +36641,7 @@
       </c>
       <c r="L65" s="62">
         <f>IFERROR(Index!L66/(Index!L64*Index!$C$2), 0)</f>
-        <v>0.03095985823</v>
+        <v>0.02805901121</v>
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -36664,7 +36664,7 @@
       </c>
       <c r="C66" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A64))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D66" s="65"/>
       <c r="E66" s="75" t="s">
@@ -36672,7 +36672,7 @@
       </c>
       <c r="F66" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A64))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G66" s="65"/>
       <c r="H66" s="76" t="s">
@@ -36680,7 +36680,7 @@
       </c>
       <c r="I66" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A64))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J66" s="65"/>
       <c r="K66" s="77" t="s">
@@ -36719,7 +36719,7 @@
       </c>
       <c r="F67" s="78">
         <f>Index!F68-Index!F66</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="65"/>
       <c r="H67" s="76" t="s">
@@ -36727,7 +36727,7 @@
       </c>
       <c r="I67" s="78">
         <f>Index!I68-Index!I66</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J67" s="65"/>
       <c r="K67" s="77" t="s">
@@ -36758,7 +36758,7 @@
       </c>
       <c r="C68" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A64))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D68" s="65"/>
       <c r="E68" s="75" t="s">
@@ -36766,7 +36766,7 @@
       </c>
       <c r="F68" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A64))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G68" s="65"/>
       <c r="H68" s="76" t="s">
@@ -36774,7 +36774,7 @@
       </c>
       <c r="I68" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A64))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J68" s="65"/>
       <c r="K68" s="77" t="s">
@@ -36869,7 +36869,7 @@
       </c>
       <c r="F71" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A71)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G71" s="65"/>
       <c r="H71" s="71" t="s">
@@ -36877,7 +36877,7 @@
       </c>
       <c r="I71" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A71))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J71" s="65"/>
       <c r="K71" s="72" t="s">
@@ -36908,7 +36908,7 @@
       </c>
       <c r="C72" s="62">
         <f>IFERROR(Index!C73/(Index!C71*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D72" s="65"/>
       <c r="E72" s="75" t="s">
@@ -36916,7 +36916,7 @@
       </c>
       <c r="F72" s="62">
         <f>IFERROR(Index!F73/(Index!F71*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G72" s="65"/>
       <c r="H72" s="76" t="s">
@@ -36924,7 +36924,7 @@
       </c>
       <c r="I72" s="62">
         <f>IFERROR(Index!I73/(Index!I71*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J72" s="65"/>
       <c r="K72" s="77" t="s">
@@ -36932,7 +36932,7 @@
       </c>
       <c r="L72" s="62">
         <f>IFERROR(Index!L73/(Index!L71*Index!$C$2), 0)</f>
-        <v>0.03095985823</v>
+        <v>0.02805901121</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -36955,7 +36955,7 @@
       </c>
       <c r="C73" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A71))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D73" s="65"/>
       <c r="E73" s="75" t="s">
@@ -36963,7 +36963,7 @@
       </c>
       <c r="F73" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A71))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G73" s="65"/>
       <c r="H73" s="76" t="s">
@@ -36971,7 +36971,7 @@
       </c>
       <c r="I73" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A71))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J73" s="65"/>
       <c r="K73" s="77" t="s">
@@ -37010,7 +37010,7 @@
       </c>
       <c r="F74" s="78">
         <f>Index!F75-Index!F73</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G74" s="65"/>
       <c r="H74" s="76" t="s">
@@ -37018,7 +37018,7 @@
       </c>
       <c r="I74" s="78">
         <f>Index!I75-Index!I73</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J74" s="65"/>
       <c r="K74" s="77" t="s">
@@ -37049,7 +37049,7 @@
       </c>
       <c r="C75" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A71))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D75" s="65"/>
       <c r="E75" s="75" t="s">
@@ -37057,7 +37057,7 @@
       </c>
       <c r="F75" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A71))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G75" s="65"/>
       <c r="H75" s="76" t="s">
@@ -37065,7 +37065,7 @@
       </c>
       <c r="I75" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A71))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J75" s="65"/>
       <c r="K75" s="77" t="s">
@@ -37160,7 +37160,7 @@
       </c>
       <c r="F78" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A78)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G78" s="65"/>
       <c r="H78" s="71" t="s">
@@ -37168,7 +37168,7 @@
       </c>
       <c r="I78" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A78))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J78" s="65"/>
       <c r="K78" s="72" t="s">
@@ -37199,7 +37199,7 @@
       </c>
       <c r="C79" s="62">
         <f>IFERROR(Index!C80/(Index!C78*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D79" s="65"/>
       <c r="E79" s="75" t="s">
@@ -37207,7 +37207,7 @@
       </c>
       <c r="F79" s="62">
         <f>IFERROR(Index!F80/(Index!F78*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G79" s="65"/>
       <c r="H79" s="76" t="s">
@@ -37215,7 +37215,7 @@
       </c>
       <c r="I79" s="62">
         <f>IFERROR(Index!I80/(Index!I78*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J79" s="65"/>
       <c r="K79" s="77" t="s">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="L79" s="62">
         <f>IFERROR(Index!L80/(Index!L78*Index!$C$2), 0)</f>
-        <v>0.03095985823</v>
+        <v>0.02805901121</v>
       </c>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -37246,7 +37246,7 @@
       </c>
       <c r="C80" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A78))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D80" s="65"/>
       <c r="E80" s="75" t="s">
@@ -37254,7 +37254,7 @@
       </c>
       <c r="F80" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A78))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G80" s="65"/>
       <c r="H80" s="76" t="s">
@@ -37262,7 +37262,7 @@
       </c>
       <c r="I80" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A78))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J80" s="65"/>
       <c r="K80" s="77" t="s">
@@ -37301,7 +37301,7 @@
       </c>
       <c r="F81" s="78">
         <f>Index!F82-Index!F80</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G81" s="65"/>
       <c r="H81" s="76" t="s">
@@ -37309,7 +37309,7 @@
       </c>
       <c r="I81" s="78">
         <f>Index!I82-Index!I80</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J81" s="65"/>
       <c r="K81" s="77" t="s">
@@ -37340,7 +37340,7 @@
       </c>
       <c r="C82" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A78))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D82" s="65"/>
       <c r="E82" s="75" t="s">
@@ -37348,7 +37348,7 @@
       </c>
       <c r="F82" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A78))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G82" s="65"/>
       <c r="H82" s="76" t="s">
@@ -37356,7 +37356,7 @@
       </c>
       <c r="I82" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A78))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J82" s="65"/>
       <c r="K82" s="77" t="s">
@@ -37451,7 +37451,7 @@
       </c>
       <c r="F85" s="69">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A85)), 0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G85" s="65"/>
       <c r="H85" s="71" t="s">
@@ -37459,7 +37459,7 @@
       </c>
       <c r="I85" s="69">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A85))</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J85" s="65"/>
       <c r="K85" s="72" t="s">
@@ -37490,7 +37490,7 @@
       </c>
       <c r="C86" s="62">
         <f>IFERROR(Index!C87/(Index!C85*Index!$C$2), 0)</f>
-        <v>0.479202146</v>
+        <v>0.5266876039</v>
       </c>
       <c r="D86" s="65"/>
       <c r="E86" s="75" t="s">
@@ -37498,7 +37498,7 @@
       </c>
       <c r="F86" s="62">
         <f>IFERROR(Index!F87/(Index!F85*Index!$C$2), 0)</f>
-        <v>0.48479065</v>
+        <v>0</v>
       </c>
       <c r="G86" s="65"/>
       <c r="H86" s="76" t="s">
@@ -37506,7 +37506,7 @@
       </c>
       <c r="I86" s="62">
         <f>IFERROR(Index!I87/(Index!I85*Index!$C$2), 0)</f>
-        <v>0.47081939</v>
+        <v>0.5266876039</v>
       </c>
       <c r="J86" s="65"/>
       <c r="K86" s="77" t="s">
@@ -37514,7 +37514,7 @@
       </c>
       <c r="L86" s="62">
         <f>IFERROR(Index!L87/(Index!L85*Index!$C$2), 0)</f>
-        <v>0.03095985823</v>
+        <v>0.02805901121</v>
       </c>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -37537,7 +37537,7 @@
       </c>
       <c r="C87" s="78">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A85))</f>
-        <v>10762.8802</v>
+        <v>13052.3722</v>
       </c>
       <c r="D87" s="65"/>
       <c r="E87" s="75" t="s">
@@ -37545,7 +37545,7 @@
       </c>
       <c r="F87" s="78">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A85))</f>
-        <v>6533.0388</v>
+        <v>0</v>
       </c>
       <c r="G87" s="65"/>
       <c r="H87" s="76" t="s">
@@ -37553,7 +37553,7 @@
       </c>
       <c r="I87" s="78">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A85))</f>
-        <v>4229.8414</v>
+        <v>13052.3722</v>
       </c>
       <c r="J87" s="65"/>
       <c r="K87" s="77" t="s">
@@ -37592,7 +37592,7 @@
       </c>
       <c r="F88" s="78">
         <f>Index!F89-Index!F87</f>
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="G88" s="65"/>
       <c r="H88" s="76" t="s">
@@ -37600,7 +37600,7 @@
       </c>
       <c r="I88" s="78">
         <f>Index!I89-Index!I87</f>
-        <v>4694.1</v>
+        <v>11544.3</v>
       </c>
       <c r="J88" s="65"/>
       <c r="K88" s="77" t="s">
@@ -37631,7 +37631,7 @@
       </c>
       <c r="C89" s="78">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A85))</f>
-        <v>22307.1802</v>
+        <v>24596.6722</v>
       </c>
       <c r="D89" s="65"/>
       <c r="E89" s="75" t="s">
@@ -37639,7 +37639,7 @@
       </c>
       <c r="F89" s="78">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A85))</f>
-        <v>13383.2388</v>
+        <v>0</v>
       </c>
       <c r="G89" s="65"/>
       <c r="H89" s="76" t="s">
@@ -37647,7 +37647,7 @@
       </c>
       <c r="I89" s="78">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A85))</f>
-        <v>8923.9414</v>
+        <v>24596.6722</v>
       </c>
       <c r="J89" s="65"/>
       <c r="K89" s="77" t="s">
